--- a/teaching/traditional_assets/database/data/singapore/singapore_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_insurance_prop_cas.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0486</v>
+        <v>-0.0313</v>
       </c>
       <c r="E2">
-        <v>-0.00733</v>
+        <v>0.0673</v>
       </c>
       <c r="G2">
-        <v>0.4423592493297587</v>
+        <v>1.088757396449704</v>
       </c>
       <c r="H2">
-        <v>0.4423592493297587</v>
+        <v>1.088757396449704</v>
       </c>
       <c r="I2">
-        <v>0.6683516406673118</v>
+        <v>0.5798816568047338</v>
       </c>
       <c r="J2">
-        <v>0.6025407703027528</v>
+        <v>0.5149842628729701</v>
       </c>
       <c r="K2">
-        <v>23.5</v>
+        <v>20.9</v>
       </c>
       <c r="L2">
-        <v>0.6300268096514746</v>
+        <v>0.6183431952662722</v>
       </c>
       <c r="M2">
-        <v>7.52</v>
+        <v>8.33</v>
       </c>
       <c r="N2">
-        <v>0.02397194772075231</v>
+        <v>0.02679318108716629</v>
       </c>
       <c r="O2">
-        <v>0.32</v>
+        <v>0.3985645933014355</v>
       </c>
       <c r="P2">
-        <v>7.52</v>
+        <v>8.33</v>
       </c>
       <c r="Q2">
-        <v>0.02397194772075231</v>
+        <v>0.02679318108716629</v>
       </c>
       <c r="R2">
-        <v>0.32</v>
+        <v>0.3985645933014355</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>64.7</v>
+        <v>38.5</v>
       </c>
       <c r="V2">
-        <v>0.2062480076506216</v>
+        <v>0.1238340302348022</v>
       </c>
       <c r="W2">
-        <v>0.085052479189287</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="X2">
-        <v>0.04569144692346547</v>
+        <v>0.04031256956053166</v>
       </c>
       <c r="Y2">
-        <v>0.03936103226582154</v>
+        <v>0.02928450003653793</v>
       </c>
       <c r="Z2">
-        <v>0.1510442998298832</v>
+        <v>0.1283511809827599</v>
       </c>
       <c r="AA2">
-        <v>0.09101034876933779</v>
+        <v>0.06609883832728178</v>
       </c>
       <c r="AB2">
-        <v>0.04531930363221992</v>
+        <v>0.04020795579160034</v>
       </c>
       <c r="AC2">
-        <v>0.04569104513711787</v>
+        <v>0.02589088253568143</v>
       </c>
       <c r="AD2">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
       <c r="AE2">
-        <v>2.647419015546367</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.327419015546367</v>
+        <v>1.34</v>
       </c>
       <c r="AG2">
-        <v>-59.37258098445363</v>
+        <v>-37.16</v>
       </c>
       <c r="AH2">
-        <v>0.01669893776524193</v>
+        <v>0.004291570586728159</v>
       </c>
       <c r="AI2">
-        <v>0.01783371286473411</v>
+        <v>0.00458213650663384</v>
       </c>
       <c r="AJ2">
-        <v>-0.2334493906094504</v>
+        <v>-0.1357492511141959</v>
       </c>
       <c r="AK2">
-        <v>-0.2536992512852075</v>
+        <v>-0.1463337796329841</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.1020602460108915</v>
+        <v>0.06767676767676768</v>
       </c>
       <c r="AP2">
-        <v>-2.261037396110043</v>
+        <v>-1.876767676767676</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0486</v>
+        <v>-0.0313</v>
       </c>
       <c r="E3">
-        <v>-0.00733</v>
+        <v>0.0673</v>
       </c>
       <c r="G3">
-        <v>0.4423592493297587</v>
+        <v>1.088757396449704</v>
       </c>
       <c r="H3">
-        <v>0.4423592493297587</v>
+        <v>1.088757396449704</v>
       </c>
       <c r="I3">
-        <v>0.6683516406673118</v>
+        <v>0.5798816568047338</v>
       </c>
       <c r="J3">
-        <v>0.6025407703027528</v>
+        <v>0.5149842628729701</v>
       </c>
       <c r="K3">
-        <v>23.5</v>
+        <v>20.9</v>
       </c>
       <c r="L3">
-        <v>0.6300268096514746</v>
+        <v>0.6183431952662722</v>
       </c>
       <c r="M3">
-        <v>7.52</v>
+        <v>8.33</v>
       </c>
       <c r="N3">
-        <v>0.02397194772075231</v>
+        <v>0.02679318108716629</v>
       </c>
       <c r="O3">
-        <v>0.32</v>
+        <v>0.3985645933014355</v>
       </c>
       <c r="P3">
-        <v>7.52</v>
+        <v>8.33</v>
       </c>
       <c r="Q3">
-        <v>0.02397194772075231</v>
+        <v>0.02679318108716629</v>
       </c>
       <c r="R3">
-        <v>0.32</v>
+        <v>0.3985645933014355</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>64.7</v>
+        <v>38.5</v>
       </c>
       <c r="V3">
-        <v>0.2062480076506216</v>
+        <v>0.1238340302348022</v>
       </c>
       <c r="W3">
-        <v>0.085052479189287</v>
+        <v>0.06959706959706959</v>
       </c>
       <c r="X3">
-        <v>0.04569144692346547</v>
+        <v>0.04031256956053166</v>
       </c>
       <c r="Y3">
-        <v>0.03936103226582154</v>
+        <v>0.02928450003653793</v>
       </c>
       <c r="Z3">
-        <v>0.1510442998298832</v>
+        <v>0.1283511809827599</v>
       </c>
       <c r="AA3">
-        <v>0.09101034876933779</v>
+        <v>0.06609883832728178</v>
       </c>
       <c r="AB3">
-        <v>0.04531930363221992</v>
+        <v>0.04020795579160034</v>
       </c>
       <c r="AC3">
-        <v>0.04569104513711787</v>
+        <v>0.02589088253568143</v>
       </c>
       <c r="AD3">
-        <v>2.68</v>
+        <v>1.34</v>
       </c>
       <c r="AE3">
-        <v>2.647419015546367</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5.327419015546367</v>
+        <v>1.34</v>
       </c>
       <c r="AG3">
-        <v>-59.37258098445363</v>
+        <v>-37.16</v>
       </c>
       <c r="AH3">
-        <v>0.01669893776524193</v>
+        <v>0.004291570586728159</v>
       </c>
       <c r="AI3">
-        <v>0.01783371286473411</v>
+        <v>0.00458213650663384</v>
       </c>
       <c r="AJ3">
-        <v>-0.2334493906094504</v>
+        <v>-0.1357492511141959</v>
       </c>
       <c r="AK3">
-        <v>-0.2536992512852075</v>
+        <v>-0.1463337796329841</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.1020602460108915</v>
+        <v>0.06767676767676768</v>
       </c>
       <c r="AP3">
-        <v>-2.261037396110043</v>
+        <v>-1.876767676767676</v>
       </c>
     </row>
   </sheetData>
